--- a/Project4867_S. P. Davis(2012).xlsx
+++ b/Project4867_S. P. Davis(2012).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DEAA2A-1A3C-224D-B8EA-98BE1EF807C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C4CE2-F932-44DA-8E06-ACA945DC4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{85B20183-0EBC-044D-9531-9562A9343FCD}"/>
+    <workbookView xWindow="45" yWindow="9090" windowWidth="15945" windowHeight="18375" xr2:uid="{85B20183-0EBC-044D-9531-9562A9343FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4867" sheetId="1" r:id="rId1"/>
@@ -549,55 +549,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>53712</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>257969</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>813594</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>172338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1A6618-BF32-35B9-0B8D-27B1D2BCEEFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10531212" y="257969"/>
-          <a:ext cx="10761132" cy="6542182"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,17 +870,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D9C244-B262-E84E-A8A2-EB9C7CF16A67}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -940,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -951,7 +900,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -962,7 +911,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -973,7 +922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -984,7 +933,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -995,7 +944,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +955,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +966,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +988,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1010,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1021,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1032,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1054,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1116,7 +1065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1076,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1138,7 +1087,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1098,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1109,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1171,7 +1120,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1182,7 +1131,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1193,7 +1142,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1153,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1164,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1226,7 +1175,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1186,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1248,7 +1197,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1208,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +1219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1281,7 +1230,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1292,7 +1241,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1252,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1263,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1325,7 +1274,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1285,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1347,7 +1296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1358,7 +1307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1369,7 +1318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1380,7 +1329,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1391,7 +1340,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1402,7 +1351,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1413,7 +1362,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1424,7 +1373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1435,7 +1384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1446,7 +1395,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1457,7 +1406,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1468,7 +1417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1479,7 +1428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1490,7 +1439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1501,7 +1450,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1512,7 +1461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1523,7 +1472,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1534,7 +1483,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1545,7 +1494,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1556,7 +1505,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1567,7 +1516,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1578,7 +1527,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1589,7 +1538,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1600,7 +1549,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1611,7 +1560,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1622,7 +1571,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1633,7 +1582,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1644,7 +1593,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1655,7 +1604,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1666,7 +1615,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1677,7 +1626,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1688,7 +1637,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1699,7 +1648,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1710,7 +1659,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1721,7 +1670,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1732,7 +1681,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1743,7 +1692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1754,7 +1703,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1765,7 +1714,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1776,7 +1725,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1787,7 +1736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1798,7 +1747,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1809,7 +1758,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1820,7 +1769,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1831,7 +1780,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1791,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1853,7 +1802,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1864,7 +1813,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1875,7 +1824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1886,7 +1835,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1897,7 +1846,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1908,7 +1857,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1919,7 +1868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1930,7 +1879,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -1941,7 +1890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -1952,7 +1901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -1963,7 +1912,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -1974,7 +1923,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -1985,7 +1934,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -1996,7 +1945,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2007,7 +1956,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2018,7 +1967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2029,7 +1978,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2040,7 +1989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2051,7 +2000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2062,7 +2011,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2073,7 +2022,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2084,7 +2033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2095,7 +2044,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2106,7 +2055,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2117,7 +2066,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2128,7 +2077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2139,7 +2088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2150,7 +2099,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2161,7 +2110,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2172,7 +2121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2183,7 +2132,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2194,7 +2143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2205,7 +2154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2216,7 +2165,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2227,7 +2176,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2238,7 +2187,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2249,7 +2198,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2260,7 +2209,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2271,7 +2220,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2282,7 +2231,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2293,7 +2242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2304,7 +2253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2315,7 +2264,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2326,7 +2275,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2337,7 +2286,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2348,7 +2297,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2359,7 +2308,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2370,7 +2319,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2381,7 +2330,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2392,7 +2341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2403,7 +2352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2414,7 +2363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2425,7 +2374,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2436,7 +2385,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2447,7 +2396,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2461,6 +2410,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>